--- a/biology/Biologie cellulaire et moléculaire/Euchromatine/Euchromatine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Euchromatine/Euchromatine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>L'euchromatine est la chromatine qui apparaît partiellement décondensée en interphase.
-Composée d'ADN partiellement décondensé formée de fibres de 11 nm de diamètre, elle est parfois désignée par la périphrase « Environnement chromatinien des gènes actifs »[1]. 
-L'ADN s'y enroule autour d'un octamère de protéines appelées histones, ce qui donne un aspect dit en « collier de perles », phénomène en réalité assez rare dans la cellule. Une « perle » est nommée nucléosome. La particule cœur est composée de 147 paires de bases enroulées[2].
+Composée d'ADN partiellement décondensé formée de fibres de 11 nm de diamètre, elle est parfois désignée par la périphrase « Environnement chromatinien des gènes actifs ». 
+L'ADN s'y enroule autour d'un octamère de protéines appelées histones, ce qui donne un aspect dit en « collier de perles », phénomène en réalité assez rare dans la cellule. Une « perle » est nommée nucléosome. La particule cœur est composée de 147 paires de bases enroulées.
 Elle est très déspiralisée et correspond à des zones de gènes actifs, c’est-à-dire que les gènes y sont transcrits. L'euchromatine (ou plus précisément les histones de celle-ci) est hyperacétylée et hypométhylée par rapport à l'hétérochromatine, et se caractérise par une localisation intra-nucléolaire.
 L'euchromatine peut se trouver sous deux formes : 
 • l’euchromatine active, qui est la forme la moins condensée de la chromatine et qui représente 10 % de l’euchromatine. Elle peut être transcrite ; 
